--- a/DAY-1/Bharath S Reddiff test case.xlsx
+++ b/DAY-1/Bharath S Reddiff test case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCL 2\Bharath_S-Training-Automation\DAY-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD17FD4-2D11-44ED-B1B1-F9D90409ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2BAED0-83F7-497A-9513-8214FC02E02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="249">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -171,12 +171,6 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>To  Validate the functionality of the facebook account creation</t>
-  </si>
-  <si>
-    <t>Account Creation</t>
-  </si>
-  <si>
     <t>TS_001</t>
   </si>
   <si>
@@ -360,18 +354,9 @@
     <t>11. Enter Wrong captcha</t>
   </si>
   <si>
-    <t>Error message "Enter the captcha" should be displayed</t>
-  </si>
-  <si>
-    <t>Error message "Enter the captcha" is displayed</t>
-  </si>
-  <si>
     <t>TC_010</t>
   </si>
   <si>
-    <t>To validate city dropdown should display correct city list based on selected country</t>
-  </si>
-  <si>
     <t>7. Select Country by using the Dropdown</t>
   </si>
   <si>
@@ -480,9 +465,6 @@
     <t>Verify validation for Rediffmail ID / Email field</t>
   </si>
   <si>
-    <t>User is on registration page</t>
-  </si>
-  <si>
     <t>1. Enter full name in the "Full name" field</t>
   </si>
   <si>
@@ -507,9 +489,6 @@
     <t>BHarathgmail.com,bharath@gmailcom</t>
   </si>
   <si>
-    <t>Verify Password field validation rules</t>
-  </si>
-  <si>
     <t>2. Enter rediffmail ID in "Rediffmail ID" field</t>
   </si>
   <si>
@@ -600,24 +579,12 @@
     <t>Balu</t>
   </si>
   <si>
-    <t>Bhararth@gmail.com</t>
-  </si>
-  <si>
-    <t>bharath@15</t>
-  </si>
-  <si>
-    <t>4. Enter  mobile number in "mobile number" field</t>
-  </si>
-  <si>
     <t>The entered mobile number should be displayed in "mobile number" field</t>
   </si>
   <si>
     <t>The entered mobile number is displayed in "mobile number" field</t>
   </si>
   <si>
-    <t>5.enter invalid mobile number</t>
-  </si>
-  <si>
     <t>The error messahe "invalid mpbile number "should be displayed</t>
   </si>
   <si>
@@ -652,6 +619,162 @@
   </si>
   <si>
     <t>selected gender is displayed</t>
+  </si>
+  <si>
+    <t>To Verify Password field validation rules</t>
+  </si>
+  <si>
+    <t>TC__008</t>
+  </si>
+  <si>
+    <t>To validate city dropdown should be display correct city list based on selected country</t>
+  </si>
+  <si>
+    <t>To validate recovery email</t>
+  </si>
+  <si>
+    <t>Bharathgmail.com</t>
+  </si>
+  <si>
+    <t>Error message "enter valid recovery email id"should be displayed</t>
+  </si>
+  <si>
+    <t>Error message "enter valid recovery email id" is displayed</t>
+  </si>
+  <si>
+    <t>8. enter the invalid email id in "My Recovery email ID" Field</t>
+  </si>
+  <si>
+    <t>9. enter the same email id entered in rediff mail id in "My Recovery email ID" Field</t>
+  </si>
+  <si>
+    <t>Error message "recovery email id cannot be same as rediff mail id "should be displayed</t>
+  </si>
+  <si>
+    <t>10. Leave "My Recovery email ID" Field empty</t>
+  </si>
+  <si>
+    <t>Error message "Enter recovery email id" should be displayed</t>
+  </si>
+  <si>
+    <t>10. Enter  mobile number in "mobile number" field</t>
+  </si>
+  <si>
+    <t>11. enter invalid mobile number</t>
+  </si>
+  <si>
+    <t>The error message "invalid mpbile number "should be displayed</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Error message "incorrect captcha"should be displayed</t>
+  </si>
+  <si>
+    <t>Error message "incorrect captcha" is displayed</t>
+  </si>
+  <si>
+    <t>Error message "Enter the correct captcha" should be displayed</t>
+  </si>
+  <si>
+    <t>The account successfully created is displayed</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>DEF_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The account is created but the entered captcha is wrong </t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>REQ_001</t>
+  </si>
+  <si>
+    <t>REQ_002</t>
+  </si>
+  <si>
+    <t>REQ_003</t>
+  </si>
+  <si>
+    <t>REQ_004</t>
+  </si>
+  <si>
+    <t>REQ_005</t>
+  </si>
+  <si>
+    <t>REQ_006</t>
+  </si>
+  <si>
+    <t>REQ_007</t>
+  </si>
+  <si>
+    <t>REQ_008</t>
+  </si>
+  <si>
+    <t>REQ_009</t>
+  </si>
+  <si>
+    <t>REQ_010</t>
+  </si>
+  <si>
+    <t>REQ_011</t>
+  </si>
+  <si>
+    <t>REQ_012</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Not Covered</t>
+  </si>
+  <si>
+    <t>Account Creation in Rediff new</t>
+  </si>
+  <si>
+    <t>To  Validate the functionality of the Rediff account creation</t>
   </si>
 </sst>
 </file>
@@ -662,7 +785,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +844,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -760,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1001,6 +1149,50 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -1016,6 +1208,41 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -1025,14 +1252,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,7 +1270,9 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1052,7 +1283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,9 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1193,22 +1418,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,26 +1472,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,36 +2186,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1987,13 +2284,13 @@
         <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -2065,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="A87:XFD87"/>
+    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,9 +2374,9 @@
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" style="32" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="35" customWidth="1"/>
     <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" style="35" customWidth="1"/>
     <col min="8" max="8" width="28.21875" customWidth="1"/>
     <col min="9" max="9" width="27.77734375" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
@@ -3036,37 +3333,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
@@ -3081,7 +3378,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
@@ -3096,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="12"/>
@@ -3107,7 +3404,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
@@ -3125,13 +3422,13 @@
       <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -3148,1715 +3445,2163 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="40">
+      <c r="B10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="38">
         <v>1</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="I11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="45">
+        <v>38417</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="46">
+        <v>8072941045</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="42">
+        <v>2</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="39" t="s">
+      <c r="I22" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="H24" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="43" t="s">
+      <c r="H25" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="45">
+        <v>38417</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="39" t="s">
+      <c r="H27" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="s">
+      <c r="I27" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="47">
-        <v>38417</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="39" t="s">
+      <c r="H28" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="48">
-        <v>8072941045</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="44">
-        <v>2</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="47">
-        <v>38417</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>55</v>
+      <c r="I28" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>55</v>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>55</v>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="46">
+        <v>8072941045</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="48">
-        <v>8072941045</v>
-      </c>
-      <c r="G31" s="43" t="s">
+      <c r="I31" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43" t="s">
+      <c r="H32" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>55</v>
+      <c r="I32" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>55</v>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="38">
+        <v>3</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="40">
-        <v>3</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>55</v>
+      <c r="I35" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="H36" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>55</v>
+      <c r="I36" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>55</v>
+      <c r="G37" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="40">
+    <row r="38" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="38">
         <v>4</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>55</v>
+      <c r="D38" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>55</v>
+      <c r="G39" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>55</v>
+      <c r="A40" s="39"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="40">
+    <row r="41" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="38">
         <v>5</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>55</v>
+      <c r="D41" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>55</v>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="44">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="42">
         <v>1234</v>
       </c>
-      <c r="G43" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>55</v>
+      <c r="G43" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="43" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>55</v>
+      <c r="I44" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="44">
+    <row r="45" spans="1:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="42">
         <v>6</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>55</v>
+      <c r="D45" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="46" t="s">
+    <row r="46" spans="1:12" s="9" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="41" t="s">
         <v>55</v>
       </c>
+      <c r="H46" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="L46" s="30"/>
     </row>
-    <row r="47" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>55</v>
+    <row r="47" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>55</v>
+    <row r="48" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="43" t="s">
+    <row r="49" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="77">
+        <v>7</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="80"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="70"/>
+    </row>
+    <row r="51" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="80"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="70"/>
+    </row>
+    <row r="52" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="80"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="70"/>
+    </row>
+    <row r="53" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="I53" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="80"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="70"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="71"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="70"/>
+    </row>
+    <row r="55" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="68">
+        <v>8</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+    </row>
+    <row r="56" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="71"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+    </row>
+    <row r="57" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="71"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="44">
-        <v>7</v>
-      </c>
-      <c r="D49" s="39" t="s">
+      <c r="F57" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+    </row>
+    <row r="58" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="71"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+    </row>
+    <row r="59" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="71"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="75">
+        <v>38417</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+    </row>
+    <row r="60" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+    </row>
+    <row r="61" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="77">
+        <v>9</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+    </row>
+    <row r="62" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="71"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+    </row>
+    <row r="63" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="71"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+    </row>
+    <row r="64" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="71"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+    </row>
+    <row r="65" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="71"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="75">
+        <v>38417</v>
+      </c>
+      <c r="G65" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+    </row>
+    <row r="66" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+    </row>
+    <row r="67" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="71"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+    </row>
+    <row r="68" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="70"/>
+      <c r="G68" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+    </row>
+    <row r="69" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="77">
+        <v>10</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+    </row>
+    <row r="70" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="71"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="70"/>
+    </row>
+    <row r="71" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="71"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+    </row>
+    <row r="72" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="71"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+    </row>
+    <row r="73" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="71"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="75">
+        <v>38417</v>
+      </c>
+      <c r="G73" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+    </row>
+    <row r="74" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="71"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
+    </row>
+    <row r="75" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="71"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+    </row>
+    <row r="76" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I76" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="70"/>
+    </row>
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E77" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I77" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="77">
+        <v>11</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="70"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+    </row>
+    <row r="80" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="43" t="s">
+      <c r="I80" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="39"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="45">
+        <v>38417</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" spans="1:12" s="9" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I85" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="1:12" s="9" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="1:12" s="9" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="71"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="85">
+        <v>1235314313</v>
+      </c>
+      <c r="G88" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="H88" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I88" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+    </row>
+    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="78"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="79">
+        <v>5150</v>
+      </c>
+      <c r="G89" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H89" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+    </row>
+    <row r="90" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="77">
+        <v>12</v>
+      </c>
+      <c r="D90" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="G90" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+    </row>
+    <row r="91" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="71"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="F91" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="43" t="s">
+      <c r="H91" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+    </row>
+    <row r="92" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="71"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="F92" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="43" t="s">
+      <c r="H92" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+    </row>
+    <row r="93" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="71"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+    </row>
+    <row r="94" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="71"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="75">
+        <v>38417</v>
+      </c>
+      <c r="G94" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+    </row>
+    <row r="95" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="71"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+    </row>
+    <row r="96" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="71"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+    </row>
+    <row r="97" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="86"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I97" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="70"/>
+    </row>
+    <row r="98" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="86"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="44">
-        <v>8</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I56" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F57" s="50">
-        <v>1235314313</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="I57" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" s="9">
-        <v>5150</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="30"/>
-    </row>
-    <row r="59" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="49" t="s">
+      <c r="G98" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+    </row>
+    <row r="99" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="92"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="F99" s="46">
+        <v>8072941045</v>
+      </c>
+      <c r="G99" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+    </row>
+    <row r="100" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="94"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="44">
-        <v>9</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G60" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I62" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="47">
-        <v>38417</v>
-      </c>
-      <c r="G63" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I63" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
-      <c r="B66" s="46"/>
-      <c r="E66" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I66" s="72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="52"/>
-      <c r="B67" s="46"/>
-      <c r="E67" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" s="72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="E68" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="48">
-        <v>8072941045</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="E69" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43" t="s">
+      <c r="F100" s="72"/>
+      <c r="G100" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+    </row>
+    <row r="101" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="F101" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="I69" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E70" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I70" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="44">
-        <v>10</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I73" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I75" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="41"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F76" s="47">
-        <v>38417</v>
-      </c>
-      <c r="G76" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I76" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="41"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G77" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G78" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H78" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="41"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H79" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="I79" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="H80" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="I80" s="76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="40">
-        <v>11</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I81" s="77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="41"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G82" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="H82" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I82" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="41"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G83" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H83" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H84" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I84" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="41"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F85" s="47">
-        <v>38417</v>
-      </c>
-      <c r="G85" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="H85" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I85" s="76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="41"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F86" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="H86" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I86" s="76" t="s">
-        <v>55</v>
-      </c>
+      <c r="G101" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="I101" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="J101" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4868,35 +5613,42 @@
     <hyperlink ref="F12" r:id="rId1" xr:uid="{CB583999-6D7C-4D89-9850-F5B33844BED7}"/>
     <hyperlink ref="F13" r:id="rId2" xr:uid="{67510BCC-14F0-4072-A4DA-F27B582A1A04}"/>
     <hyperlink ref="F18" r:id="rId3" xr:uid="{AABBE146-517B-4D39-85EE-41FCECD76E79}"/>
-    <hyperlink ref="F61" r:id="rId4" xr:uid="{80CEF763-824A-4426-8C26-8316B0E6F6C8}"/>
-    <hyperlink ref="F62" r:id="rId5" xr:uid="{501F6B4E-31F1-4EA4-BA57-FC4F8EAA2635}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{4578A687-8B93-496A-A1B1-910BB34B0FAE}"/>
-    <hyperlink ref="F24" r:id="rId7" xr:uid="{68A01CAD-9CD9-4503-9F5C-DED7BE22C8FE}"/>
-    <hyperlink ref="F25" r:id="rId8" xr:uid="{7FD724BC-2AD5-4D11-B0F5-A21DE8316542}"/>
-    <hyperlink ref="F30" r:id="rId9" display="sam123@gmail.com" xr:uid="{EC94B634-08DA-4D76-A97A-F10B767693A5}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{3CBE573E-CAC2-48EB-B9F9-BF1E40D47A0D}"/>
-    <hyperlink ref="F37" r:id="rId11" xr:uid="{18985689-CDE1-41BA-84FF-0DC37C81B34C}"/>
-    <hyperlink ref="F39" r:id="rId12" display="mailto:kumar321@gmail.com" xr:uid="{61D21ADC-0967-4C82-9C7C-D73F00684B0F}"/>
-    <hyperlink ref="F42" r:id="rId13" xr:uid="{378D1F7B-F7F0-4C90-A47A-7869DD7F6279}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{4578A687-8B93-496A-A1B1-910BB34B0FAE}"/>
+    <hyperlink ref="F24" r:id="rId5" xr:uid="{68A01CAD-9CD9-4503-9F5C-DED7BE22C8FE}"/>
+    <hyperlink ref="F25" r:id="rId6" xr:uid="{7FD724BC-2AD5-4D11-B0F5-A21DE8316542}"/>
+    <hyperlink ref="F30" r:id="rId7" display="sam123@gmail.com" xr:uid="{EC94B634-08DA-4D76-A97A-F10B767693A5}"/>
+    <hyperlink ref="F23" r:id="rId8" xr:uid="{3CBE573E-CAC2-48EB-B9F9-BF1E40D47A0D}"/>
+    <hyperlink ref="F37" r:id="rId9" xr:uid="{18985689-CDE1-41BA-84FF-0DC37C81B34C}"/>
+    <hyperlink ref="F39" r:id="rId10" display="mailto:kumar321@gmail.com" xr:uid="{61D21ADC-0967-4C82-9C7C-D73F00684B0F}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{378D1F7B-F7F0-4C90-A47A-7869DD7F6279}"/>
+    <hyperlink ref="F48" r:id="rId12" xr:uid="{665C04C2-BF73-4CDB-A5E9-61839181DEF8}"/>
+    <hyperlink ref="F47" r:id="rId13" xr:uid="{6CA33E89-81AD-4421-9BE1-C9309AB49C1D}"/>
     <hyperlink ref="F46" r:id="rId14" xr:uid="{9D088545-EA3C-40AD-A15E-B1407E042DED}"/>
-    <hyperlink ref="F47" r:id="rId15" xr:uid="{6CA33E89-81AD-4421-9BE1-C9309AB49C1D}"/>
-    <hyperlink ref="F48" r:id="rId16" xr:uid="{665C04C2-BF73-4CDB-A5E9-61839181DEF8}"/>
-    <hyperlink ref="F50" r:id="rId17" xr:uid="{ABB0667B-617D-4209-BDB6-94AE29928E40}"/>
-    <hyperlink ref="F51" r:id="rId18" xr:uid="{90BBBDA6-F86B-42F2-956A-AFBE36BECEEC}"/>
-    <hyperlink ref="F55" r:id="rId19" xr:uid="{6896EB30-7D8A-485E-9CF7-1850719D2535}"/>
-    <hyperlink ref="F56" r:id="rId20" xr:uid="{CF51F79F-ED15-4510-BD79-1F66B698C79D}"/>
-    <hyperlink ref="F59" r:id="rId21" display="bharath@15" xr:uid="{70EC6EF8-13C3-4282-9B91-6DD484651046}"/>
-    <hyperlink ref="F60" r:id="rId22" xr:uid="{E7968849-5461-44B2-BE74-8850FB1D4E8C}"/>
-    <hyperlink ref="F67" r:id="rId23" xr:uid="{1CC59C00-DEE7-491C-93DB-CEC546981AFC}"/>
-    <hyperlink ref="F74" r:id="rId24" xr:uid="{F75172E6-2F4A-4EB1-B712-76D9D090FB03}"/>
-    <hyperlink ref="F75" r:id="rId25" xr:uid="{9BFD9DF2-E672-45ED-8FA4-462B95399985}"/>
-    <hyperlink ref="F73" r:id="rId26" xr:uid="{D0F6E295-AC42-41D8-A367-6ACF015BFF8B}"/>
-    <hyperlink ref="F83" r:id="rId27" xr:uid="{F1E46517-CC25-4C49-9C1F-FCBD3C1052A7}"/>
-    <hyperlink ref="F84" r:id="rId28" xr:uid="{5BACF7C5-3D01-4DA6-B23C-C6640D442747}"/>
-    <hyperlink ref="F82" r:id="rId29" xr:uid="{9B8DD193-2E06-4B54-81F6-8192E4C80CA4}"/>
+    <hyperlink ref="F51" r:id="rId15" display="mailto:bharath@gmail.com" xr:uid="{D11134A0-24B3-428A-BBBC-C2E50906A084}"/>
+    <hyperlink ref="F52" r:id="rId16" display="mailto:Bhar@12" xr:uid="{66CC5C70-8B08-46CA-ADD5-278B5B7D0F4A}"/>
+    <hyperlink ref="F90" r:id="rId17" display="mailto:bharath@15" xr:uid="{801C4D1C-CD92-445D-99B4-DD05BA8DB0F7}"/>
+    <hyperlink ref="F91" r:id="rId18" display="mailto:Bharath@gmail.com" xr:uid="{7DCBFA18-6446-4542-B566-B540579E5A8C}"/>
+    <hyperlink ref="F92" r:id="rId19" display="mailto:Bharath@12" xr:uid="{5E287356-5651-4C8B-BF95-5424A00988A5}"/>
+    <hyperlink ref="F93" r:id="rId20" display="mailto:Bharath@12" xr:uid="{E10B009B-0650-4EF9-856F-E2BE2BA6A771}"/>
+    <hyperlink ref="F98" r:id="rId21" display="mailto:Bharathfew@gmail.com" xr:uid="{8934DB27-0898-4D03-8766-3A8A5CCE0E3B}"/>
+    <hyperlink ref="F56" r:id="rId22" display="mailto:Bharath@gmail.com" xr:uid="{41F12E3F-75D9-4A3C-A7F5-8FC77AA33967}"/>
+    <hyperlink ref="F57" r:id="rId23" display="mailto:Bharath@134" xr:uid="{BDAB175C-8E68-4CEB-90B3-93D06562CFCD}"/>
+    <hyperlink ref="F58" r:id="rId24" display="mailto:Bharath@134" xr:uid="{F282F543-E80D-47EE-8CCE-6B58EF9D4EE7}"/>
+    <hyperlink ref="F62" r:id="rId25" display="mailto:Bharath@gmail.com" xr:uid="{BE8A02E4-6EF5-4B3E-8095-6F48D239CDBE}"/>
+    <hyperlink ref="F63" r:id="rId26" display="mailto:Bharath@134" xr:uid="{44B800CE-DE9E-44A0-A7B8-84299395F21C}"/>
+    <hyperlink ref="F64" r:id="rId27" display="mailto:Bharath@134" xr:uid="{5E84B45C-DF40-4360-81CB-5CE3992729BF}"/>
+    <hyperlink ref="F70" r:id="rId28" display="mailto:Bharath@gmail.com" xr:uid="{8997F854-F3EE-4A91-BB59-68184DB99BBF}"/>
+    <hyperlink ref="F71" r:id="rId29" display="mailto:Bharath@134" xr:uid="{BC04C486-1201-4BA2-B527-0477533D2A10}"/>
+    <hyperlink ref="F72" r:id="rId30" display="mailto:Bharath@134" xr:uid="{07F38296-C0EC-4050-8A6D-AB246AEB9B8A}"/>
+    <hyperlink ref="F76" r:id="rId31" display="Bharath@gmail.com" xr:uid="{4008EF94-C31C-4825-94C6-A85CE4CB5E9A}"/>
+    <hyperlink ref="F77" r:id="rId32" xr:uid="{D1F6F4A6-5487-4527-AA20-760AEADEE02C}"/>
+    <hyperlink ref="F81" r:id="rId33" xr:uid="{41B89A7B-6493-4ECF-B18C-03885142F4E9}"/>
+    <hyperlink ref="F82" r:id="rId34" xr:uid="{9E597186-E7C4-492D-8E13-A7E686567135}"/>
+    <hyperlink ref="F87" r:id="rId35" xr:uid="{93FA63CF-CF90-4F00-A9F1-18581E8CAD50}"/>
+    <hyperlink ref="F80" r:id="rId36" xr:uid="{353C9FEC-6625-41E7-AE2B-F52B16166457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -4904,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C9D068-D540-454C-8DE6-9D8144402BBF}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5873,44 +6625,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="60"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>45985</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -5919,8 +6677,10 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="E6" s="1"/>
       <c r="F6" s="12"/>
     </row>
@@ -5931,7 +6691,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -5969,12 +6729,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>219</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>186</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -5983,12 +6751,16 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>187</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -5997,12 +6769,16 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>113</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -6011,12 +6787,16 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>113</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -6025,74 +6805,109 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="75">
+        <v>38417</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>75</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>188</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="46">
+        <v>8072941045</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="72"/>
       <c r="F20" s="22"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>88</v>
+      </c>
       <c r="F21" s="19"/>
       <c r="G21" s="13"/>
     </row>
@@ -6529,8 +7344,15 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" display="mailto:bharath@15" xr:uid="{152B7EDD-FEB6-49C0-812D-4109B5CCE0CC}"/>
+    <hyperlink ref="E11" r:id="rId2" display="mailto:Bharath@gmail.com" xr:uid="{F7779A6E-3D65-494E-BF25-70DAC7BD96E3}"/>
+    <hyperlink ref="E12" r:id="rId3" display="mailto:Bharath@12" xr:uid="{A8B4CDC6-3404-4971-9FA4-DB0E76392C0C}"/>
+    <hyperlink ref="E13" r:id="rId4" display="mailto:Bharath@12" xr:uid="{A45CCFF8-1727-4BDE-A907-7BC5BF633AB3}"/>
+    <hyperlink ref="E18" r:id="rId5" display="mailto:Bharathfew@gmail.com" xr:uid="{6D10CFA5-6E2C-4DCD-AFD5-708E9A1C70D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6538,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6995,62 +7817,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
+      <c r="C7" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="60"/>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>45985</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>46046</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
@@ -7073,99 +7903,197 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -7255,6 +8183,7 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:G9"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7266,15 +8195,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100942A5F91C020114B9D9B6669BDED9868" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62496d86c6ae077114fd1d88c4539805">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24503b2e-f4dc-4abf-83fe-5a97c0785769" xmlns:ns3="e79f15d7-c448-4303-9ba2-b2daf1085145" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22ddc5b4a67293e3563182d9cb923a11" ns2:_="" ns3:_="">
     <xsd:import namespace="24503b2e-f4dc-4abf-83fe-5a97c0785769"/>
@@ -7491,6 +8411,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47764454-282F-4F71-8E29-2F5154146D66}">
   <ds:schemaRefs>
@@ -7509,14 +8438,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0CD53BC-1D15-4B9F-8123-00188531DB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86B9FAD-4AF9-4744-AA50-00A254F1E863}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7533,4 +8454,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0CD53BC-1D15-4B9F-8123-00188531DB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>